--- a/Entity Info EM - DEMO 2.xlsx
+++ b/Entity Info EM - DEMO 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharrisonr001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22DAC1B4-F62A-4158-8966-FF30EF098CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026ACA73-0C20-46D0-BBE9-FB2D2A20B41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -790,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1856,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1896,7 +1893,7 @@
       <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="14" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="2"/>
@@ -2869,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3012,25 +3009,27 @@
       <c r="B3" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="36">
+        <v>2450</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="36"/>
       <c r="J3" s="36" t="s">
         <v>134</v>
       </c>
@@ -3053,7 +3052,7 @@
       <c r="Q3" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3064,25 +3063,27 @@
       <c r="B4" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="37">
+        <v>4000</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F4" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="G4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="H4" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="I4" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="37"/>
       <c r="J4" s="37" t="s">
         <v>144</v>
       </c>
@@ -3098,13 +3099,14 @@
       <c r="N4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" t="s">
         <v>142</v>
       </c>
+      <c r="P4" s="37"/>
       <c r="Q4" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3115,25 +3117,27 @@
       <c r="B5" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="37">
+        <v>5501</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="37"/>
       <c r="J5" s="37" t="s">
         <v>150</v>
       </c>
@@ -3149,13 +3153,14 @@
       <c r="N5" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" t="s">
         <v>153</v>
       </c>
+      <c r="P5" s="37"/>
       <c r="Q5" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Entity Info EM - DEMO 2.xlsx
+++ b/Entity Info EM - DEMO 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharrisonr001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026ACA73-0C20-46D0-BBE9-FB2D2A20B41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43CB6F4-57AC-4F04-B56B-89EFA911C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,9 +468,6 @@
     <t>Large</t>
   </si>
   <si>
-    <t>In</t>
-  </si>
-  <si>
     <t>SAP</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>w_67fd9c30fbbe458bbae9a00133e42dc5</t>
+  </si>
+  <si>
+    <t>In scope</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1877,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>6</v>
@@ -1894,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2867,7 +2867,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3028,29 +3028,29 @@
         <v>139</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>134</v>
       </c>
       <c r="K3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="36" t="s">
-        <v>142</v>
-      </c>
       <c r="M3" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P3" s="36"/>
       <c r="Q3" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R3" t="s">
         <v>24</v>
@@ -3058,22 +3058,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>145</v>
       </c>
       <c r="C4" s="37">
         <v>4000</v>
       </c>
       <c r="D4" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F4" s="37" t="s">
         <v>147</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>148</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>24</v>
@@ -3081,30 +3081,30 @@
       <c r="H4" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>140</v>
+      <c r="I4" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N4" s="37" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P4" s="37"/>
       <c r="Q4" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R4" t="s">
         <v>24</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>150</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>151</v>
       </c>
       <c r="C5" s="37">
         <v>5501</v>
@@ -3124,10 +3124,10 @@
         <v>136</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>24</v>
@@ -3135,30 +3135,30 @@
       <c r="H5" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="J5" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="37" t="s">
+      <c r="L5" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="M5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>143</v>
-      </c>
       <c r="O5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P5" s="37"/>
       <c r="Q5" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R5" t="s">
         <v>24</v>

--- a/Entity Info EM - DEMO 2.xlsx
+++ b/Entity Info EM - DEMO 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jharrisonr001\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43CB6F4-57AC-4F04-B56B-89EFA911C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B3E391-89B2-43F4-BFBD-43E37D80270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="155">
   <si>
     <t>Data Type Definitions</t>
   </si>
@@ -511,9 +511,6 @@
   </si>
   <si>
     <t>w_67fd9c30fbbe458bbae9a00133e42dc5</t>
-  </si>
-  <si>
-    <t>In scope</t>
   </si>
 </sst>
 </file>
@@ -2866,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3027,9 +3024,7 @@
       <c r="H3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>155</v>
-      </c>
+      <c r="I3" s="36"/>
       <c r="J3" s="36" t="s">
         <v>134</v>
       </c>
@@ -3081,9 +3076,7 @@
       <c r="H4" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>155</v>
-      </c>
+      <c r="I4" s="36"/>
       <c r="J4" s="37" t="s">
         <v>143</v>
       </c>
@@ -3135,9 +3128,7 @@
       <c r="H5" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="36" t="s">
-        <v>155</v>
-      </c>
+      <c r="I5" s="36"/>
       <c r="J5" s="37" t="s">
         <v>149</v>
       </c>
